--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2517.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2517.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.524822790295497</v>
+        <v>1.809159398078918</v>
       </c>
       <c r="B1">
-        <v>3.369383292548843</v>
+        <v>2.590580224990845</v>
       </c>
       <c r="C1">
-        <v>3.942830524465901</v>
+        <v>2.70127010345459</v>
       </c>
       <c r="D1">
-        <v>2.087874982739318</v>
+        <v>3.080679178237915</v>
       </c>
       <c r="E1">
-        <v>2.148239567066747</v>
+        <v>3.341838121414185</v>
       </c>
     </row>
   </sheetData>
